--- a/medicine/Psychotrope/Révélations_(film)/Révélations_(film).xlsx
+++ b/medicine/Psychotrope/Révélations_(film)/Révélations_(film).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
+          <t>Révélations_(film)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Révélations ou L'Initié au Québec (The Insider) est un film américain réalisé par Michael Mann, sorti en 1999. Ce film est basé sur l'histoire réelle de Jeffrey Wigand, souhaitant dénoncer les pratiques d'un cigarettier.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
+          <t>Révélations_(film)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Jeffrey Wigand, vice-président de la recherche et du développement de Brown &amp; Williamson Tobacco Corporation, société productrice de cigarettes, devient lanceur d'alerte. De son côté, le journaliste Lowell Bergman et l'émission de télévision (60 Minutes) révèlent des secrets sur les pratiques douteuses de l'industrie du tabac et sur les véritables dangers du tabagisme, malgré toutes les menaces et toutes les pressions de toutes sortes exercées sur les protagonistes, qui vivent des moments d'intense angoisse.
 Lowell reçoit un rapport écrit provenant du cigarettier Philip Morris, envoyé par un anonyme. Manquant de l'expertise nécessaire pour comprendre ce rapport, il se fait diriger vers Jeffrey Wigand. Ce dernier a été récemment licencié par son employeur. Lorsque les deux hommes se rencontrent, Lowell comprend que Jeffrey détient des informations sensibles sur son employeur, mais qu'il ne peut révéler selon une clause de confidentialité.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
+          <t>Révélations_(film)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre français : Révélations
 Titre québécois : L'Initié
@@ -559,7 +575,7 @@
 Musique : Pieter Bourke, Lisa Gerrard, Michael Brook et Gustavo Santaolalla
 Production : Touchstone Pictures, Forward Pass, Spyglass Entertainment, Mann/Roth Production
 Sociétés de distribution : Spyglass Entertainment, Buena Vista Distribution
-Budget : 68 000 000 USD (estimation)[1]
+Budget : 68 000 000 USD (estimation)
 Langue originale : anglais
 Format : couleurs - 2,35:1 (Cinémascope)
 Genre : Drame, thriller et biopic
@@ -576,7 +592,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
+          <t>Révélations_(film)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -594,7 +610,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Al Pacino (VF : José Luccioni ; VQ : Luis de Cespedes) : Lowell Bergman (en)
 Russell Crowe (VF : Emmanuel Jacomy ; VQ : Pierre Auger) : le docteur Jeffrey Wigand
@@ -614,7 +632,7 @@
 Jack Palladino : lui-même
 Cliff Curtis (VF : Robert Liensol ; VQ : Manuel Tadros) : Sheikh Fadlallah
 Wanda De Jesus (VF : Catherine Hamilty) : la « géologiste » du FBI
- Source et légende : version française (VF) sur RS Doublage[2] et selon le carton du doublage français sur le DVD zone 2.</t>
+ Source et légende : version française (VF) sur RS Doublage et selon le carton du doublage français sur le DVD zone 2.</t>
         </is>
       </c>
     </row>
@@ -624,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
+          <t>Révélations_(film)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -644,17 +662,127 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Genèse et développement
-Le film s'inspire d'un article de Marie Brenner paru dans Vanity Fair en mai 1996, revenant sur le combat de Jeffrey Wigand. Ce dernier est devenu lanceur d'alerte sur les méfaits de certains produits insérés dans le tabac. Il avait auparavant été employé par Brown &amp; Williamson, troisième plus grand fabricant de cigarettes américain[3].
-Jeffrey Wigand a exigé des producteurs que son personnage ne soit pas montré en train de fumer et que le moins possible de fumeurs soient montrés et que le nom de sa fille soit changé[4].
-Attribution des rôles
-Michael Mann voulait Val Kilmer, qu'il avait dirigé dans Heat, pour le rôle Jeffrey Wigand. Le producteur Pieter Jan Brugge a cependant suggéré Russell Crowe[4].
-Michael Moore (en) (procureur général du Mississippi) et Jack Palladino (en) (célèbre enquêteur privé) ont participé au film de Michael Mann après avoir réellement vécu cette affaire[3],[4].
+          <t>Genèse et développement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film s'inspire d'un article de Marie Brenner paru dans Vanity Fair en mai 1996, revenant sur le combat de Jeffrey Wigand. Ce dernier est devenu lanceur d'alerte sur les méfaits de certains produits insérés dans le tabac. Il avait auparavant été employé par Brown &amp; Williamson, troisième plus grand fabricant de cigarettes américain.
+Jeffrey Wigand a exigé des producteurs que son personnage ne soit pas montré en train de fumer et que le moins possible de fumeurs soient montrés et que le nom de sa fille soit changé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Révélations_(film)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9v%C3%A9lations_(film)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Attribution des rôles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Michael Mann voulait Val Kilmer, qu'il avait dirigé dans Heat, pour le rôle Jeffrey Wigand. Le producteur Pieter Jan Brugge a cependant suggéré Russell Crowe.
+Michael Moore (en) (procureur général du Mississippi) et Jack Palladino (en) (célèbre enquêteur privé) ont participé au film de Michael Mann après avoir réellement vécu cette affaire,.
 Michael Mann avait déjà dirigé Diane Venora dans Heat, son précédent film.
-Tournage
-Le tournage a eu lieu en Alabama (Mobile), au Kentucky (Louisville), dans le Mississippi (Pascagoula), en Californie (Los Angeles, Long Island, Berkeley, lac Big Bear, Santa Ana, San Francisco), dans l'Indiana (Jeffersonville), à New York, ainsi qu'aux Bahamas (îles Abacos) et en Israel (Umm al-Fahm, Baka El Garbia)[5].
-Musique
-La musique du film est composée par Pieter Bourke et Lisa Gerrard. L'album de la bande originale contient par ailleurs des compositions de Graeme Revell, Jan Garbarek, Gustavo Santaolalla ainsi qu'une chanson de Massive Attack.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Révélations_(film)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9v%C3%A9lations_(film)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Tournage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le tournage a eu lieu en Alabama (Mobile), au Kentucky (Louisville), dans le Mississippi (Pascagoula), en Californie (Los Angeles, Long Island, Berkeley, lac Big Bear, Santa Ana, San Francisco), dans l'Indiana (Jeffersonville), à New York, ainsi qu'aux Bahamas (îles Abacos) et en Israel (Umm al-Fahm, Baka El Garbia).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Révélations_(film)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9v%C3%A9lations_(film)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Musique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>La musique du film est composée par Pieter Bourke et Lisa Gerrard. L'album de la bande originale contient par ailleurs des compositions de Graeme Revell, Jan Garbarek, Gustavo Santaolalla ainsi qu'une chanson de Massive Attack.
 Liste des titres
 Tempest (Lisa Gerrard &amp; Pieter Bourke) — 2:51
 Dawn of the Truth (Lisa Gerrard &amp; Pieter Bourke) — 1:59
@@ -682,65 +810,36 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Révélations_(film)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Psychotrope/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/R%C3%A9v%C3%A9lations_(film)</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Sortie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Critique
-Box-office</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>R%C3%A9v%C3%A9lations_(film)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/R%C3%A9v%C3%A9lations_(film)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1999 : LAFCA du meilleur film
-Oscars 1999[9] :
+Oscars 1999 :
 Nomination à l'Oscar du meilleur film pour Michael Mann et Pieter Jan Brugge
 Nomination à l'Oscar du meilleur réalisateur pour Michael Mann
 Nomination à l'Oscar du meilleur acteur pour Russell Crowe dans le rôle de Jeffrey Wigand
